--- a/data/trans_orig/P6712-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6712-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>14855</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8909</v>
+        <v>7750</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24053</v>
+        <v>23776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1179671143774581</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07074843212787636</v>
+        <v>0.0615432791800771</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1910041830930957</v>
+        <v>0.1888058000162677</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -763,19 +763,19 @@
         <v>9519</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4193</v>
+        <v>4458</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15516</v>
+        <v>17203</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1115912282116946</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0491603866289666</v>
+        <v>0.05226348995019978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1819020347957369</v>
+        <v>0.2016709470600785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -784,19 +784,19 @@
         <v>24374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15584</v>
+        <v>15630</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34273</v>
+        <v>35642</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1153923445964955</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07377606592029601</v>
+        <v>0.07399380814128878</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1622549680211687</v>
+        <v>0.1687352829531705</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>7415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3042</v>
+        <v>2613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15840</v>
+        <v>15081</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05888431302539458</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.024158092267958</v>
+        <v>0.02074820345800072</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1257857816011351</v>
+        <v>0.1197564303430473</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -834,19 +834,19 @@
         <v>3174</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>986</v>
+        <v>967</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8548</v>
+        <v>8785</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03720647478411828</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01155407369142069</v>
+        <v>0.01133456759142908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1002093575604889</v>
+        <v>0.1029837079044841</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -855,19 +855,19 @@
         <v>10589</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5190</v>
+        <v>5008</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19846</v>
+        <v>19074</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05013016632811734</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02456804599087575</v>
+        <v>0.0237077500919798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09395455976634028</v>
+        <v>0.09029738013481446</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>19196</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11898</v>
+        <v>11839</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30101</v>
+        <v>28464</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1524349252852424</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09448233859392401</v>
+        <v>0.09401547341803901</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2390277379920399</v>
+        <v>0.2260317095526275</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -905,19 +905,19 @@
         <v>13283</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7346</v>
+        <v>7687</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21805</v>
+        <v>22361</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1557247096774925</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08612085700882711</v>
+        <v>0.09011814406415909</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2556204870142565</v>
+        <v>0.2621414764070178</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -926,19 +926,19 @@
         <v>32479</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22497</v>
+        <v>21753</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44979</v>
+        <v>45772</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1537634366825336</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.106502734060996</v>
+        <v>0.1029806537886736</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2129391785489896</v>
+        <v>0.2166943244698897</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>9293</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4930</v>
+        <v>4601</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17001</v>
+        <v>16372</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07379343052664046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0391486479400668</v>
+        <v>0.0365382618146275</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1350027501058602</v>
+        <v>0.130012494462164</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -976,19 +976,19 @@
         <v>7287</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3062</v>
+        <v>2194</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15065</v>
+        <v>15015</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08542248709062389</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03589151176599867</v>
+        <v>0.02572452745338464</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.17661571408869</v>
+        <v>0.1760209308397582</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -997,19 +997,19 @@
         <v>16579</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9605</v>
+        <v>9865</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26403</v>
+        <v>26237</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07848958454250565</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04546942998819048</v>
+        <v>0.04670164630359521</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1249968735951637</v>
+        <v>0.1242089968346231</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>75170</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62893</v>
+        <v>63943</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>86077</v>
+        <v>86555</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5969202167852644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4994283618324718</v>
+        <v>0.5077717309529033</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6835372047942133</v>
+        <v>0.687334638031988</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -1047,19 +1047,19 @@
         <v>52038</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41932</v>
+        <v>42309</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>60264</v>
+        <v>61031</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6100551002360708</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4915788333315504</v>
+        <v>0.4960013903042629</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7064854719269882</v>
+        <v>0.7154727522462794</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>121</v>
@@ -1068,19 +1068,19 @@
         <v>127208</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>111180</v>
+        <v>110853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>141517</v>
+        <v>141879</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6022244678503479</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5263453338463311</v>
+        <v>0.5247954164910362</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6699681085078916</v>
+        <v>0.671679541386121</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>12653</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6991</v>
+        <v>6834</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19958</v>
+        <v>20126</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07345858038509256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04058724352932996</v>
+        <v>0.03967951059479708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1158704168101653</v>
+        <v>0.116849818871707</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1193,19 +1193,19 @@
         <v>6924</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14919</v>
+        <v>13979</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05777584564245577</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02474157441102217</v>
+        <v>0.02470232120991989</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1244796803107425</v>
+        <v>0.1166386023611183</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -1214,19 +1214,19 @@
         <v>19577</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11660</v>
+        <v>12359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28861</v>
+        <v>30448</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06702362966917411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03992026168645363</v>
+        <v>0.04231301309990003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09880761402279982</v>
+        <v>0.1042413262264635</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>2951</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7931</v>
+        <v>8664</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0171336285261268</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005413826826359402</v>
+        <v>0.005438094224213092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04604499902764234</v>
+        <v>0.05030033157384342</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1264,19 +1264,19 @@
         <v>5178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1988</v>
+        <v>2040</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11345</v>
+        <v>11496</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04320336736032778</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01658752126229043</v>
+        <v>0.017022975570738</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09465917022186288</v>
+        <v>0.0959191711953119</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -1285,19 +1285,19 @@
         <v>8129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3181</v>
+        <v>4045</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15260</v>
+        <v>15222</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02783058204398903</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01089189652303255</v>
+        <v>0.01384740265440195</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05224456487419848</v>
+        <v>0.05211320665598235</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>17876</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10016</v>
+        <v>11314</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26839</v>
+        <v>28942</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1037854731346738</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05815318709210787</v>
+        <v>0.06569003184670746</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1558233014877995</v>
+        <v>0.1680301170389575</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1335,19 +1335,19 @@
         <v>9248</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3195</v>
+        <v>4099</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17345</v>
+        <v>17101</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07716150414312781</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02666216563126998</v>
+        <v>0.03420152796695311</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1447246033365172</v>
+        <v>0.1426824094966029</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -1356,19 +1356,19 @@
         <v>27124</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18202</v>
+        <v>17429</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>39221</v>
+        <v>38930</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09286110751003822</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06231538665397255</v>
+        <v>0.05966869559472407</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1342765658037322</v>
+        <v>0.1332808199123</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>22593</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14833</v>
+        <v>14793</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33410</v>
+        <v>33223</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1311706282100444</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08611531631930942</v>
+        <v>0.08588740057164072</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1939728612928763</v>
+        <v>0.1928906284912527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1406,19 +1406,19 @@
         <v>23269</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14739</v>
+        <v>15659</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32160</v>
+        <v>33590</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1941469230522479</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1229808308710505</v>
+        <v>0.1306538147679041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2683324296913951</v>
+        <v>0.2802618143480325</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -1427,19 +1427,19 @@
         <v>45862</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34022</v>
+        <v>34169</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59286</v>
+        <v>60544</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1570111056670133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.116476509714341</v>
+        <v>0.1169822061740474</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2029710842569118</v>
+        <v>0.2072791861825898</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>116168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>102934</v>
+        <v>102335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>129090</v>
+        <v>127141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6744516897440624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.597619654710036</v>
+        <v>0.5941438315001222</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7494749677085633</v>
+        <v>0.7381610616990003</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -1477,19 +1477,19 @@
         <v>75232</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>63603</v>
+        <v>62924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86352</v>
+        <v>85828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6277123598018408</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5306870507865193</v>
+        <v>0.5250222129672929</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7204944131423826</v>
+        <v>0.7161240832659977</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>175</v>
@@ -1498,19 +1498,19 @@
         <v>191400</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>173328</v>
+        <v>173847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>207339</v>
+        <v>207677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6552735751097853</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5934056615854232</v>
+        <v>0.5951805555767984</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7098434092627006</v>
+        <v>0.7110002992041853</v>
       </c>
     </row>
     <row r="15">
@@ -1605,16 +1605,16 @@
         <v>927</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8554</v>
+        <v>7176</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0208880807855863</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006472295139853267</v>
+        <v>0.00647359195174464</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05973614007026386</v>
+        <v>0.05011014692864042</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1636,19 +1636,19 @@
         <v>2991</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8035</v>
+        <v>7946</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01332231852162672</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004162902305085879</v>
+        <v>0.004107516686950615</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0357874904739157</v>
+        <v>0.03539012671359492</v>
       </c>
     </row>
     <row r="17">
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5446</v>
+        <v>3747</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006397545744223149</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03803260942246849</v>
+        <v>0.02616349585200013</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1686,19 +1686,19 @@
         <v>3941</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9137</v>
+        <v>9150</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04846247838786492</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01215272618492182</v>
+        <v>0.01209932110784488</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1123547996797481</v>
+        <v>0.1125152590491766</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1707,19 +1707,19 @@
         <v>4857</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1883</v>
+        <v>1914</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10653</v>
+        <v>10648</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02163366452881131</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.008388727309075656</v>
+        <v>0.008523299026367096</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04744496054881558</v>
+        <v>0.04742416358199911</v>
       </c>
     </row>
     <row r="18">
@@ -1736,19 +1736,19 @@
         <v>24680</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16898</v>
+        <v>17046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34352</v>
+        <v>33704</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1723432816613382</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.117999382546424</v>
+        <v>0.1190336658050015</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2398835706496945</v>
+        <v>0.2353597939695757</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1757,19 +1757,19 @@
         <v>14828</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7859</v>
+        <v>8888</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23173</v>
+        <v>22694</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1823353427625992</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09663905907671698</v>
+        <v>0.109293172968092</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2849418379318799</v>
+        <v>0.2790588266658059</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -1778,19 +1778,19 @@
         <v>39508</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>29503</v>
+        <v>29522</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>50965</v>
+        <v>52758</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1759624537430196</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1314044868602286</v>
+        <v>0.1314876084177974</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2269919139666391</v>
+        <v>0.2349780735023077</v>
       </c>
     </row>
     <row r="19">
@@ -1807,19 +1807,19 @@
         <v>41864</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31082</v>
+        <v>31995</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>52713</v>
+        <v>53516</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2923429817377817</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2170541756156777</v>
+        <v>0.2234275647521685</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3681026305033122</v>
+        <v>0.3737151316409085</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -1828,19 +1828,19 @@
         <v>14659</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8685</v>
+        <v>8346</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22720</v>
+        <v>22714</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1802588982807475</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1067978491576969</v>
+        <v>0.102629646801628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2793715142609492</v>
+        <v>0.2793032088337635</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>57</v>
@@ -1849,19 +1849,19 @@
         <v>56523</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44861</v>
+        <v>44137</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71706</v>
+        <v>70793</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2517455933173537</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1998066160990398</v>
+        <v>0.1965820565584236</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3193668375710547</v>
+        <v>0.3153020666054623</v>
       </c>
     </row>
     <row r="20">
@@ -1878,19 +1878,19 @@
         <v>72750</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61678</v>
+        <v>60693</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>85359</v>
+        <v>83871</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5080281100710706</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4307064956145786</v>
+        <v>0.4238285884124909</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5960811903853813</v>
+        <v>0.5856855233448879</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -1899,19 +1899,19 @@
         <v>47895</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38627</v>
+        <v>39270</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57188</v>
+        <v>56129</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5889432805687883</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4749705741611043</v>
+        <v>0.4828894282075099</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7032128368519441</v>
+        <v>0.6901875945065474</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -1920,19 +1920,19 @@
         <v>120645</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>105191</v>
+        <v>104203</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>136034</v>
+        <v>135566</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5373359698891886</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.468504798606769</v>
+        <v>0.4641048411613357</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6058763626865683</v>
+        <v>0.6037910229950826</v>
       </c>
     </row>
     <row r="21">
@@ -2024,19 +2024,19 @@
         <v>2906</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7950</v>
+        <v>8062</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0203653960537661</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0</v>
+        <v>0.006383324858667898</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05571694438038365</v>
+        <v>0.05650107903667018</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7911</v>
+        <v>6411</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01843699185365249</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07722162437881659</v>
+        <v>0.06257518672278795</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2066,19 +2066,19 @@
         <v>4795</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1906</v>
+        <v>1857</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11029</v>
+        <v>10650</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01955947782956918</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00777390537618889</v>
+        <v>0.0075769822929037</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04499018496627731</v>
+        <v>0.04344547579398305</v>
       </c>
     </row>
     <row r="23">
@@ -2095,19 +2095,19 @@
         <v>7091</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2894</v>
+        <v>3067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14824</v>
+        <v>15464</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04969376400609794</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02028368717697627</v>
+        <v>0.02149708024892173</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1038892933244064</v>
+        <v>0.1083735216509465</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5651</v>
+        <v>5798</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01819931070715954</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05516366735704235</v>
+        <v>0.0565952946712469</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -2137,19 +2137,19 @@
         <v>8955</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3907</v>
+        <v>4067</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17029</v>
+        <v>17626</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03653160958160645</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01593820678234003</v>
+        <v>0.01659133807447825</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06946868144374152</v>
+        <v>0.07190409244541926</v>
       </c>
     </row>
     <row r="24">
@@ -2166,19 +2166,19 @@
         <v>19654</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12769</v>
+        <v>12131</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29759</v>
+        <v>29802</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1377366489858436</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08948528801511009</v>
+        <v>0.08501997110674757</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2085559611167936</v>
+        <v>0.2088596858370137</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -2187,19 +2187,19 @@
         <v>20443</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12650</v>
+        <v>12979</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30043</v>
+        <v>29855</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1995497466610417</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1234757695196796</v>
+        <v>0.1266863442198968</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2932508248685124</v>
+        <v>0.2914166807300396</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>37</v>
@@ -2208,19 +2208,19 @@
         <v>40097</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>27934</v>
+        <v>29011</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>52380</v>
+        <v>52900</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1635695640497973</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1139527338703957</v>
+        <v>0.1183460115128313</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2136762453760085</v>
+        <v>0.2157969068306651</v>
       </c>
     </row>
     <row r="25">
@@ -2237,19 +2237,19 @@
         <v>31093</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22587</v>
+        <v>21932</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41875</v>
+        <v>41374</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2179057444864094</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1582984638105798</v>
+        <v>0.1537052752205527</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2934718732284489</v>
+        <v>0.2899580407856933</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -2258,19 +2258,19 @@
         <v>33235</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24349</v>
+        <v>24087</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44431</v>
+        <v>44414</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3244074471329586</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2376670287469584</v>
+        <v>0.235111020287153</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4336915710042138</v>
+        <v>0.433526558105899</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>60</v>
@@ -2279,19 +2279,19 @@
         <v>64328</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49996</v>
+        <v>50654</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78733</v>
+        <v>78207</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2624149107005251</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2039503432841241</v>
+        <v>0.2066374888466596</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.321179026315786</v>
+        <v>0.3190340965342898</v>
       </c>
     </row>
     <row r="26">
@@ -2308,19 +2308,19 @@
         <v>81946</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69395</v>
+        <v>69426</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>93206</v>
+        <v>94266</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.574298446467883</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4863346411734371</v>
+        <v>0.4865515115880922</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6532123622684288</v>
+        <v>0.6606378332012817</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>44</v>
@@ -2329,19 +2329,19 @@
         <v>45016</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34812</v>
+        <v>35195</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55192</v>
+        <v>55257</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4394065036451877</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.339802428120721</v>
+        <v>0.3435424760801574</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5387341466999741</v>
+        <v>0.5393619750340379</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>117</v>
@@ -2350,19 +2350,19 @@
         <v>126962</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>110599</v>
+        <v>110438</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>142619</v>
+        <v>144423</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5179244378385019</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4511706589552053</v>
+        <v>0.4505147853313272</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5817914291244546</v>
+        <v>0.5891502246481253</v>
       </c>
     </row>
     <row r="27">
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7617</v>
+        <v>6832</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02631220668388638</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.09253767070638336</v>
+        <v>0.08300478884467173</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -2475,19 +2475,19 @@
         <v>8744</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4068</v>
+        <v>4031</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15329</v>
+        <v>15724</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1597369636303018</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07431081547088568</v>
+        <v>0.07363289947573484</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2800139280523149</v>
+        <v>0.2872289770282153</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -2496,19 +2496,19 @@
         <v>10910</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5788</v>
+        <v>5782</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>19049</v>
+        <v>19547</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0796045610233418</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04223209501437282</v>
+        <v>0.04218554355240342</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1389841835097886</v>
+        <v>0.1426187585199623</v>
       </c>
     </row>
     <row r="29">
@@ -2525,19 +2525,19 @@
         <v>15495</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9196</v>
+        <v>9606</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24802</v>
+        <v>24156</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1882462105209691</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1117151192534876</v>
+        <v>0.1166964766755662</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3013134418099162</v>
+        <v>0.2934663132578044</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2546,19 +2546,19 @@
         <v>6483</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2043</v>
+        <v>2032</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14278</v>
+        <v>13163</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1184319115105826</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03732416151083675</v>
+        <v>0.03711579797870024</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2608223852110547</v>
+        <v>0.24044605575014</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -2567,19 +2567,19 @@
         <v>21979</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>13938</v>
+        <v>12999</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32480</v>
+        <v>32278</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1603610680183942</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1016952254144064</v>
+        <v>0.09484618015986335</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2369824506328514</v>
+        <v>0.235508992534648</v>
       </c>
     </row>
     <row r="30">
@@ -2596,19 +2596,19 @@
         <v>19390</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12450</v>
+        <v>11735</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27493</v>
+        <v>28155</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2355575830385865</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1512556122021624</v>
+        <v>0.1425690872307532</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3339981289237691</v>
+        <v>0.3420413932652081</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>12</v>
@@ -2617,19 +2617,19 @@
         <v>11704</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6768</v>
+        <v>6482</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>18903</v>
+        <v>18235</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2137984639227129</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.12362486046756</v>
+        <v>0.1184123581821715</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.345306293222613</v>
+        <v>0.3331006517619668</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>30</v>
@@ -2638,19 +2638,19 @@
         <v>31094</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22619</v>
+        <v>22034</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>41992</v>
+        <v>41715</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2268665821135988</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1650339648002385</v>
+        <v>0.1607627113222541</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3063844456404919</v>
+        <v>0.3043642379109694</v>
       </c>
     </row>
     <row r="31">
@@ -2667,19 +2667,19 @@
         <v>11138</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5926</v>
+        <v>5948</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19396</v>
+        <v>17859</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1353093338614008</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07199281114988791</v>
+        <v>0.0722572928565383</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2356369307945657</v>
+        <v>0.2169643435773314</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>11</v>
@@ -2688,19 +2688,19 @@
         <v>10981</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5785</v>
+        <v>5823</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17953</v>
+        <v>17819</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2005939611348277</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1056846083356631</v>
+        <v>0.1063721251559465</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3279517239863257</v>
+        <v>0.3255085409884417</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -2709,19 +2709,19 @@
         <v>22119</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14233</v>
+        <v>14091</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>31726</v>
+        <v>31022</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1613852403812981</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1038504292839397</v>
+        <v>0.1028108988251076</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2314799170502109</v>
+        <v>0.2263422989561448</v>
       </c>
     </row>
     <row r="32">
@@ -2738,19 +2738,19 @@
         <v>34125</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>24386</v>
+        <v>24787</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>43916</v>
+        <v>43944</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4145746658951573</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.29625335692515</v>
+        <v>0.3011233714089264</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5335180316109671</v>
+        <v>0.5338589878479112</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -2759,19 +2759,19 @@
         <v>16830</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>10651</v>
+        <v>10915</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>23957</v>
+        <v>24594</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3074386998015748</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1945546965765416</v>
+        <v>0.1993902585004118</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4376183687281646</v>
+        <v>0.4492618396408923</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>47</v>
@@ -2780,19 +2780,19 @@
         <v>50955</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>39021</v>
+        <v>39716</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>62529</v>
+        <v>62757</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3717825484633671</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2847034792657517</v>
+        <v>0.2897741090860385</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4562274340260454</v>
+        <v>0.4578906690758773</v>
       </c>
     </row>
     <row r="33">
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>7573</v>
+        <v>6572</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03823125415235502</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.136960617378405</v>
+        <v>0.1188683555795351</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7288</v>
+        <v>7554</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01225411670835132</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04225027574881298</v>
+        <v>0.04379199075582855</v>
       </c>
     </row>
     <row r="35">
@@ -2947,19 +2947,19 @@
         <v>4916</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1872</v>
+        <v>1911</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11067</v>
+        <v>10801</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04194435258933008</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01597115148557704</v>
+        <v>0.01630638713239497</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09441812867672164</v>
+        <v>0.09215221023569713</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7290</v>
+        <v>6371</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03717615207399826</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.131850801605045</v>
+        <v>0.1152164868701776</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2989,19 +2989,19 @@
         <v>6972</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2971</v>
+        <v>3352</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13432</v>
+        <v>13497</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04041601963507104</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01722256831334559</v>
+        <v>0.01943073859827772</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07786564605457007</v>
+        <v>0.07824118396972106</v>
       </c>
     </row>
     <row r="36">
@@ -3018,19 +3018,19 @@
         <v>22822</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14082</v>
+        <v>14775</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32589</v>
+        <v>33211</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1947028668466028</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1201385297611897</v>
+        <v>0.1260511771255773</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.278031730711347</v>
+        <v>0.2833409165175413</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>11</v>
@@ -3039,19 +3039,19 @@
         <v>11268</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5999</v>
+        <v>5871</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>18392</v>
+        <v>17861</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2037918021326519</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1085045909070736</v>
+        <v>0.106179525468353</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3326270079095127</v>
+        <v>0.3230379833055117</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>32</v>
@@ -3060,19 +3060,19 @@
         <v>34090</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>24300</v>
+        <v>24287</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>46084</v>
+        <v>46971</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1976161082826816</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1408678125648452</v>
+        <v>0.1407922812336701</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2671439668247927</v>
+        <v>0.2722882281655341</v>
       </c>
     </row>
     <row r="37">
@@ -3089,19 +3089,19 @@
         <v>22797</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14730</v>
+        <v>15616</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>32149</v>
+        <v>34129</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1944963709916706</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1256660893273552</v>
+        <v>0.1332297207663462</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.274279201174042</v>
+        <v>0.2911721750651083</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>12</v>
@@ -3110,19 +3110,19 @@
         <v>11595</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6761</v>
+        <v>6628</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>18812</v>
+        <v>18883</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2097041335367613</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1222808851417094</v>
+        <v>0.1198752798478044</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3402255874312921</v>
+        <v>0.3415073036981458</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>33</v>
@@ -3131,19 +3131,19 @@
         <v>34392</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>24130</v>
+        <v>23891</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>45836</v>
+        <v>46764</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1993708565724413</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1398823456493774</v>
+        <v>0.1384969345944531</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2657084321330001</v>
+        <v>0.2710868747908528</v>
       </c>
     </row>
     <row r="38">
@@ -3160,19 +3160,19 @@
         <v>66677</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>56078</v>
+        <v>54585</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>77087</v>
+        <v>77507</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5688564095723965</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4784288467435905</v>
+        <v>0.465696279626192</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.657669134539229</v>
+        <v>0.6612557114210205</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>25</v>
@@ -3181,19 +3181,19 @@
         <v>28260</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>20861</v>
+        <v>21029</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>35988</v>
+        <v>36014</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5110966581042335</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3772925733724688</v>
+        <v>0.3803208751225154</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6508768464409856</v>
+        <v>0.6513470882327032</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>86</v>
@@ -3202,19 +3202,19 @@
         <v>94937</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>81353</v>
+        <v>80917</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>107074</v>
+        <v>108779</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5503428988014547</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4715991645790515</v>
+        <v>0.4690676093110318</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6206996185785307</v>
+        <v>0.6305861347165854</v>
       </c>
     </row>
     <row r="39">
@@ -3306,19 +3306,19 @@
         <v>10496</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5617</v>
+        <v>5675</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>19577</v>
+        <v>19936</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03886998365663674</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02080238430149815</v>
+        <v>0.0210147909577122</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07249728458973019</v>
+        <v>0.07382433427713452</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>5</v>
@@ -3327,19 +3327,19 @@
         <v>5090</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1914</v>
+        <v>1850</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11159</v>
+        <v>10897</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02810168094125615</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01056614389110782</v>
+        <v>0.01021469008447036</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06161341770747663</v>
+        <v>0.06016820341718351</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>15</v>
@@ -3348,19 +3348,19 @@
         <v>15586</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>9075</v>
+        <v>8699</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>25262</v>
+        <v>25485</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03454707803981776</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02011567534417703</v>
+        <v>0.01928081056879011</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05599327008942157</v>
+        <v>0.05648896539342213</v>
       </c>
     </row>
     <row r="41">
@@ -3377,19 +3377,19 @@
         <v>11421</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5806</v>
+        <v>5480</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>20094</v>
+        <v>20151</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04229509507360946</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0215008394657249</v>
+        <v>0.02029185335811111</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07440914517706489</v>
+        <v>0.07462065902639115</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>8</v>
@@ -3398,19 +3398,19 @@
         <v>8381</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4055</v>
+        <v>4038</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16790</v>
+        <v>15158</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0462722029006264</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02238902827666674</v>
+        <v>0.02229274641762548</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.09270154177437777</v>
+        <v>0.08369486154417358</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>18</v>
@@ -3419,19 +3419,19 @@
         <v>19802</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>12154</v>
+        <v>12247</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>30675</v>
+        <v>30641</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04389169411233722</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02693868981704439</v>
+        <v>0.02714522833255672</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06799254486756333</v>
+        <v>0.0679166330659457</v>
       </c>
     </row>
     <row r="42">
@@ -3448,19 +3448,19 @@
         <v>41711</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>30479</v>
+        <v>30566</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>55840</v>
+        <v>55232</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1544632461751129</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1128681956208917</v>
+        <v>0.1131912236778692</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2067848333647897</v>
+        <v>0.2045330532961601</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>26</v>
@@ -3469,19 +3469,19 @@
         <v>29005</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>20080</v>
+        <v>19585</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>41868</v>
+        <v>41108</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1601491699194361</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1108689701890073</v>
+        <v>0.1081372755693704</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.231170740501098</v>
+        <v>0.2269719613021309</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>66</v>
@@ -3490,19 +3490,19 @@
         <v>70717</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>56772</v>
+        <v>55691</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>87256</v>
+        <v>86445</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1567458446811924</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1258370793879195</v>
+        <v>0.123440423927387</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.193404627124015</v>
+        <v>0.1916068005735666</v>
       </c>
     </row>
     <row r="43">
@@ -3519,19 +3519,19 @@
         <v>53871</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>41545</v>
+        <v>42490</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>67757</v>
+        <v>68224</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1994933197043706</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1538463680783752</v>
+        <v>0.1573453108378635</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2509144797528154</v>
+        <v>0.2526443343696375</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>38</v>
@@ -3540,19 +3540,19 @@
         <v>40742</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>30449</v>
+        <v>29707</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>52676</v>
+        <v>52794</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2249506679960811</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1681192383620888</v>
+        <v>0.1640219855924441</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2908424584793998</v>
+        <v>0.2914934963752035</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>92</v>
@@ -3561,19 +3561,19 @@
         <v>94613</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>78796</v>
+        <v>77623</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>113399</v>
+        <v>113584</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2097131024155649</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1746536504639963</v>
+        <v>0.1720525245658282</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2513516863679421</v>
+        <v>0.2517628772917567</v>
       </c>
     </row>
     <row r="44">
@@ -3590,19 +3590,19 @@
         <v>152540</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>134639</v>
+        <v>136271</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>169063</v>
+        <v>168508</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5648783553902702</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4985871474756232</v>
+        <v>0.5046314614873619</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.626065044474717</v>
+        <v>0.6240076863784432</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>93</v>
@@ -3611,19 +3611,19 @@
         <v>97897</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>84202</v>
+        <v>83366</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>111676</v>
+        <v>111057</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5405262782426002</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4649091722450847</v>
+        <v>0.4602922474562989</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.616603789900411</v>
+        <v>0.6131824889217459</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>230</v>
@@ -3632,19 +3632,19 @@
         <v>250438</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>229705</v>
+        <v>229531</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>271861</v>
+        <v>270973</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5551022807510878</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5091470695945444</v>
+        <v>0.5087623303895147</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6025864928047386</v>
+        <v>0.6006203507172112</v>
       </c>
     </row>
     <row r="45">
@@ -3736,19 +3736,19 @@
         <v>13477</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>7858</v>
+        <v>7950</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>22149</v>
+        <v>23289</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.03752049070343418</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0218760121802001</v>
+        <v>0.02213355012762969</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.0616655173271998</v>
+        <v>0.06483796137116234</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>8</v>
@@ -3757,19 +3757,19 @@
         <v>8592</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>4183</v>
+        <v>3977</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>16373</v>
+        <v>16440</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.03322216118540307</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01617473445719041</v>
+        <v>0.01537770560458216</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.06331361172130903</v>
+        <v>0.06357073063611438</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>21</v>
@@ -3778,19 +3778,19 @@
         <v>22068</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>14230</v>
+        <v>14657</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>32716</v>
+        <v>32474</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.03572120671643628</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.02303337451714923</v>
+        <v>0.02372550975949092</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.05295641722311055</v>
+        <v>0.05256473208460884</v>
       </c>
     </row>
     <row r="47">
@@ -3807,19 +3807,19 @@
         <v>15135</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>8960</v>
+        <v>8092</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>25330</v>
+        <v>25876</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04213731899175382</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02494556925817724</v>
+        <v>0.02252939210388226</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.07051963214178952</v>
+        <v>0.07204209278664943</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>7</v>
@@ -3828,19 +3828,19 @@
         <v>8542</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3496</v>
+        <v>3974</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>16962</v>
+        <v>18081</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03302885956374314</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.01351887925347395</v>
+        <v>0.01536576498780296</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.06558820222456484</v>
+        <v>0.06991562340989696</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>21</v>
@@ -3849,19 +3849,19 @@
         <v>23677</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>14463</v>
+        <v>14577</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>36429</v>
+        <v>35376</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03832451098662288</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02341121240579661</v>
+        <v>0.02359546071808892</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05896700542034104</v>
+        <v>0.0572614687179064</v>
       </c>
     </row>
     <row r="48">
@@ -3878,19 +3878,19 @@
         <v>58039</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>45110</v>
+        <v>45782</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>74407</v>
+        <v>73274</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1615867803555703</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1255899623478589</v>
+        <v>0.1274613435066941</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2071564759092039</v>
+        <v>0.2040008161715789</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>48</v>
@@ -3899,19 +3899,19 @@
         <v>53272</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>39653</v>
+        <v>40834</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>68951</v>
+        <v>68025</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2059939269395409</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1533317237815347</v>
+        <v>0.1578982959874426</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.266623931809578</v>
+        <v>0.2630422579430949</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>102</v>
@@ -3920,19 +3920,19 @@
         <v>111311</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>93058</v>
+        <v>91883</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>131093</v>
+        <v>131661</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1801756454999546</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1506299034088535</v>
+        <v>0.1487282909200362</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2121964435545639</v>
+        <v>0.2131153173225163</v>
       </c>
     </row>
     <row r="49">
@@ -3949,19 +3949,19 @@
         <v>141444</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>121579</v>
+        <v>124189</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>161130</v>
+        <v>161511</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.3937917413274107</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3384853817491573</v>
+        <v>0.3457530438545803</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4485991227260716</v>
+        <v>0.4496606840365049</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>91</v>
@@ -3970,19 +3970,19 @@
         <v>101137</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>85666</v>
+        <v>84171</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>116550</v>
+        <v>117982</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3910836381934539</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3312564667653063</v>
+        <v>0.3254772515682936</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4506819616653555</v>
+        <v>0.456219880627308</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>223</v>
@@ -3991,19 +3991,19 @@
         <v>242581</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>217953</v>
+        <v>218917</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>268055</v>
+        <v>268687</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3926581273074462</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3527930719877769</v>
+        <v>0.354354435533964</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4338917974301357</v>
+        <v>0.4349150238840497</v>
       </c>
     </row>
     <row r="50">
@@ -4020,19 +4020,19 @@
         <v>131089</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>113357</v>
+        <v>113992</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>150653</v>
+        <v>151375</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3649636686218309</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3155959796967517</v>
+        <v>0.3173651054754812</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4194321996876176</v>
+        <v>0.4214426782357931</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>80</v>
@@ -4041,19 +4041,19 @@
         <v>87066</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>72526</v>
+        <v>72286</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>104089</v>
+        <v>103303</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3366714141178589</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2804464411960977</v>
+        <v>0.279520637188939</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4024979682507941</v>
+        <v>0.3994588055068118</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>201</v>
@@ -4062,19 +4062,19 @@
         <v>218155</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>194939</v>
+        <v>193193</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>242841</v>
+        <v>242394</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.35312050948954</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3155422321227399</v>
+        <v>0.3127156376756533</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3930795667871437</v>
+        <v>0.3923557815832946</v>
       </c>
     </row>
     <row r="51">
@@ -4166,19 +4166,19 @@
         <v>59544</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>45805</v>
+        <v>43917</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>76755</v>
+        <v>74504</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.04214593225199854</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.03242120473509977</v>
+        <v>0.03108478549555971</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.05432792640356501</v>
+        <v>0.05273448883484646</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>40</v>
@@ -4187,19 +4187,19 @@
         <v>42872</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>31055</v>
+        <v>29934</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>56474</v>
+        <v>56204</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.0456722001724774</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.03308330325463742</v>
+        <v>0.03188895732820278</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.06016319102477785</v>
+        <v>0.05987516727727318</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>97</v>
@@ -4208,19 +4208,19 @@
         <v>102416</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>82728</v>
+        <v>84548</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>122823</v>
+        <v>124931</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.04355356825923442</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.03518108198650137</v>
+        <v>0.03595517616549365</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.05223179578673629</v>
+        <v>0.05312854277568423</v>
       </c>
     </row>
     <row r="53">
@@ -4237,19 +4237,19 @@
         <v>65341</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>51677</v>
+        <v>49978</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>84254</v>
+        <v>82146</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.04624920202710035</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.03657782414442055</v>
+        <v>0.03537505920197731</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.05963547171161323</v>
+        <v>0.05814361279703703</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>36</v>
@@ -4258,19 +4258,19 @@
         <v>39618</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>27816</v>
+        <v>27208</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>54497</v>
+        <v>53915</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.04220635549658056</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.02963351919838718</v>
+        <v>0.02898549833738195</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.05805683876546517</v>
+        <v>0.05743726974650265</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>95</v>
@@ -4279,19 +4279,19 @@
         <v>104960</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>86284</v>
+        <v>85851</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>128354</v>
+        <v>127349</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.04463535518493656</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.03669321728823074</v>
+        <v>0.03650933254404815</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.05458401771700835</v>
+        <v>0.0541568148258594</v>
       </c>
     </row>
     <row r="54">
@@ -4308,19 +4308,19 @@
         <v>223367</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>194680</v>
+        <v>195800</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>251778</v>
+        <v>254261</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.1581013716267156</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.1377963327135525</v>
+        <v>0.1385891016792144</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.1782108413011815</v>
+        <v>0.1799681361293123</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>150</v>
@@ -4329,19 +4329,19 @@
         <v>163052</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>141674</v>
+        <v>140631</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>187308</v>
+        <v>191377</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.1737033500690693</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1509284908938776</v>
+        <v>0.1498180324045783</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.1995436414274676</v>
+        <v>0.2038789711611151</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>360</v>
@@ -4350,19 +4350,19 @@
         <v>386419</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>348347</v>
+        <v>348836</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>424840</v>
+        <v>422390</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.1643294595471004</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.1481389102971087</v>
+        <v>0.1483466298535792</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.1806682388081405</v>
+        <v>0.1796264064243777</v>
       </c>
     </row>
     <row r="55">
@@ -4379,19 +4379,19 @@
         <v>334092</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>302031</v>
+        <v>302026</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>364026</v>
+        <v>367921</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2364736734765893</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.213780672435791</v>
+        <v>0.2137767780443302</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.2576610035882569</v>
+        <v>0.2604180273484743</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>222</v>
@@ -4400,19 +4400,19 @@
         <v>242905</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>217536</v>
+        <v>215177</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>271013</v>
+        <v>273660</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2587724330366844</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2317465401363973</v>
+        <v>0.2292329917721905</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2887164010526757</v>
+        <v>0.291536821177762</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>546</v>
@@ -4421,19 +4421,19 @@
         <v>576997</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>532853</v>
+        <v>536855</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>623323</v>
+        <v>620733</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2453750211850818</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.226602178871149</v>
+        <v>0.2283040255061264</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2650756793274454</v>
+        <v>0.2639744500893569</v>
       </c>
     </row>
     <row r="56">
@@ -4450,19 +4450,19 @@
         <v>730464</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>690306</v>
+        <v>695411</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>768949</v>
+        <v>772224</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.5170298206175963</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.4886051632937198</v>
+        <v>0.492218759522106</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.5442693158856249</v>
+        <v>0.5465876577545774</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>419</v>
@@ -4471,19 +4471,19 @@
         <v>450234</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>418695</v>
+        <v>418557</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>481850</v>
+        <v>482222</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4796456612251884</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4460462010752065</v>
+        <v>0.4458995218861467</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.5133261556250407</v>
+        <v>0.5137229986930874</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>1095</v>
@@ -4492,19 +4492,19 @@
         <v>1180699</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>1127028</v>
+        <v>1129208</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>1228916</v>
+        <v>1227525</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.5021065958236468</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.4792824315903522</v>
+        <v>0.4802097209890421</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.5226116009923738</v>
+        <v>0.522020266490689</v>
       </c>
     </row>
     <row r="57">
@@ -4840,19 +4840,19 @@
         <v>15394</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8773</v>
+        <v>9040</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25435</v>
+        <v>24934</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1157030422647146</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06593470907022986</v>
+        <v>0.06794172409187814</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1911699407535103</v>
+        <v>0.1874003915549672</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -4861,19 +4861,19 @@
         <v>10627</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5046</v>
+        <v>5717</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17634</v>
+        <v>17795</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1061944183245552</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05042734655308478</v>
+        <v>0.05713115923827642</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1762190122282539</v>
+        <v>0.1778279323009619</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -4882,19 +4882,19 @@
         <v>26021</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17458</v>
+        <v>16800</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37453</v>
+        <v>37219</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1116213540479845</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07488832758170037</v>
+        <v>0.0720676728416344</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1606580087222071</v>
+        <v>0.1596547892285366</v>
       </c>
     </row>
     <row r="5">
@@ -4911,19 +4911,19 @@
         <v>19543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11986</v>
+        <v>12289</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29625</v>
+        <v>29495</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.146885142822319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09008546365973041</v>
+        <v>0.09236032191280583</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2226600873674567</v>
+        <v>0.2216817697170635</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -4932,19 +4932,19 @@
         <v>10535</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5627</v>
+        <v>5642</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18293</v>
+        <v>17521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1052776759791537</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05622863445937937</v>
+        <v>0.05637914719282399</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1828068816932611</v>
+        <v>0.1750868133032785</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -4953,19 +4953,19 @@
         <v>30078</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20747</v>
+        <v>19878</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41830</v>
+        <v>41132</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1290246502620368</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08899628683140244</v>
+        <v>0.08526971366759026</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1794372858867902</v>
+        <v>0.1764397774777708</v>
       </c>
     </row>
     <row r="6">
@@ -4982,19 +4982,19 @@
         <v>22986</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14347</v>
+        <v>14696</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33138</v>
+        <v>33971</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1727574096895618</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1078320565758727</v>
+        <v>0.1104533144006948</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2490656399090448</v>
+        <v>0.2553234268522283</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -5003,19 +5003,19 @@
         <v>14491</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8697</v>
+        <v>8482</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23362</v>
+        <v>22775</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.144812782092112</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08691223740993748</v>
+        <v>0.08475902882673762</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2334523428346493</v>
+        <v>0.2275921690199637</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -5024,19 +5024,19 @@
         <v>37477</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27578</v>
+        <v>26619</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>50820</v>
+        <v>50866</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1607618509311921</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1183003511503396</v>
+        <v>0.1141878427605208</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.217999227441822</v>
+        <v>0.2181945996856698</v>
       </c>
     </row>
     <row r="7">
@@ -5053,19 +5053,19 @@
         <v>19852</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11549</v>
+        <v>12774</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30334</v>
+        <v>29828</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1492025387329761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08680171581640977</v>
+        <v>0.09600489024745817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2279895827787125</v>
+        <v>0.2241825413829451</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -5074,19 +5074,19 @@
         <v>10860</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5702</v>
+        <v>6064</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18342</v>
+        <v>18553</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1085267138507928</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05697672276864259</v>
+        <v>0.06059299639195895</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.183290740984479</v>
+        <v>0.18539567646776</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -5095,19 +5095,19 @@
         <v>30712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20510</v>
+        <v>21125</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42593</v>
+        <v>42436</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.131741964398326</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08798164171213668</v>
+        <v>0.0906198462898407</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1827080493719026</v>
+        <v>0.1820366084270306</v>
       </c>
     </row>
     <row r="8">
@@ -5124,19 +5124,19 @@
         <v>55276</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43902</v>
+        <v>43200</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68696</v>
+        <v>67420</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4154518664904285</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3299601247276588</v>
+        <v>0.3246852143425458</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5163159741819007</v>
+        <v>0.5067249959251028</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>50</v>
@@ -5145,19 +5145,19 @@
         <v>53556</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>43530</v>
+        <v>43665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63250</v>
+        <v>63782</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5351884097533863</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4349932708065013</v>
+        <v>0.4363422076124746</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6320602468664531</v>
+        <v>0.6373754210134693</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>99</v>
@@ -5166,19 +5166,19 @@
         <v>108832</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>91169</v>
+        <v>93437</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>123944</v>
+        <v>125074</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4668501803604606</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3910818430959485</v>
+        <v>0.4008113849234822</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5316745109319202</v>
+        <v>0.5365228136284778</v>
       </c>
     </row>
     <row r="9">
@@ -5270,19 +5270,19 @@
         <v>12982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7373</v>
+        <v>6709</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23044</v>
+        <v>23073</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07623102733069688</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04329580902881332</v>
+        <v>0.03939843238627042</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.135315624286548</v>
+        <v>0.1354858168233059</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5291,19 +5291,19 @@
         <v>16600</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10348</v>
+        <v>9551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25105</v>
+        <v>25590</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.146023197562883</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09102392326008152</v>
+        <v>0.08402037886444003</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2208425863998543</v>
+        <v>0.2251021130509281</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -5312,19 +5312,19 @@
         <v>29582</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19957</v>
+        <v>19956</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42971</v>
+        <v>41409</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1041698673438511</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07027506602263026</v>
+        <v>0.07027479760994171</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1513179557552451</v>
+        <v>0.1458197199955509</v>
       </c>
     </row>
     <row r="11">
@@ -5341,19 +5341,19 @@
         <v>14682</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8305</v>
+        <v>8409</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23734</v>
+        <v>23239</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08621571073357018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04876606623717897</v>
+        <v>0.04937632047383003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1393701156532389</v>
+        <v>0.1364587868171081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -5362,19 +5362,19 @@
         <v>12417</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6914</v>
+        <v>7047</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20747</v>
+        <v>20131</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1092245897515327</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06081757671758253</v>
+        <v>0.06198781863976374</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1825036466097662</v>
+        <v>0.1770873508992167</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -5383,19 +5383,19 @@
         <v>27099</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18479</v>
+        <v>18181</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>39229</v>
+        <v>37586</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09542650597931561</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06507136331375714</v>
+        <v>0.06402246003249476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1381428327008401</v>
+        <v>0.1323559241474579</v>
       </c>
     </row>
     <row r="12">
@@ -5412,19 +5412,19 @@
         <v>36248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25314</v>
+        <v>26255</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47744</v>
+        <v>47802</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.21284917921274</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1486448830108333</v>
+        <v>0.1541694074684165</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2803551880822399</v>
+        <v>0.280698965518921</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -5433,19 +5433,19 @@
         <v>19337</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12193</v>
+        <v>12559</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28469</v>
+        <v>29122</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1700973313812631</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1072576016079768</v>
+        <v>0.1104756588287934</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2504352786635269</v>
+        <v>0.2561777985149875</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>54</v>
@@ -5454,19 +5454,19 @@
         <v>55584</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42707</v>
+        <v>44148</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>70481</v>
+        <v>71148</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.195734980974504</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1503902609851653</v>
+        <v>0.1554628997216788</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2481931952997946</v>
+        <v>0.2505400542289005</v>
       </c>
     </row>
     <row r="13">
@@ -5483,19 +5483,19 @@
         <v>42504</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31159</v>
+        <v>31756</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54596</v>
+        <v>53696</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2495858716094909</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1829660849098614</v>
+        <v>0.1864751434772099</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3205916687985413</v>
+        <v>0.3153065760657939</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -5504,19 +5504,19 @@
         <v>19022</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11823</v>
+        <v>11987</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27796</v>
+        <v>27759</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1673251026786683</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.104000039962392</v>
+        <v>0.1054466911016263</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2445126377077717</v>
+        <v>0.2441824420899876</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -5525,19 +5525,19 @@
         <v>61525</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47614</v>
+        <v>49337</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76191</v>
+        <v>78015</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2166556667617069</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.167666841856679</v>
+        <v>0.1737347492926574</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.268301430963952</v>
+        <v>0.2747239809322198</v>
       </c>
     </row>
     <row r="14">
@@ -5554,19 +5554,19 @@
         <v>63882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52411</v>
+        <v>51700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78145</v>
+        <v>78120</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3751182111135021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3077642122765858</v>
+        <v>0.3035883047360761</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4588765077396245</v>
+        <v>0.4587283683838064</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -5575,19 +5575,19 @@
         <v>46305</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36123</v>
+        <v>35988</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57606</v>
+        <v>57251</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.407329778625653</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3177604906493832</v>
+        <v>0.3165689712004605</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.506741438340419</v>
+        <v>0.5036155417242734</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>101</v>
@@ -5596,19 +5596,19 @@
         <v>110187</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>94455</v>
+        <v>94092</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128227</v>
+        <v>126855</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3880129789406225</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3326143528353788</v>
+        <v>0.3313355860677594</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4515412791871974</v>
+        <v>0.44671007995752</v>
       </c>
     </row>
     <row r="15">
@@ -5700,19 +5700,19 @@
         <v>3377</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>868</v>
+        <v>833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10103</v>
+        <v>9753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0268898275960028</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006908580897178612</v>
+        <v>0.006634667585290086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08044221041159175</v>
+        <v>0.07765594770664434</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5721,19 +5721,19 @@
         <v>2743</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7266</v>
+        <v>7402</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03252997483037353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009809404026875926</v>
+        <v>0.009992882392050068</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08615508940792452</v>
+        <v>0.08777484717344937</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -5742,19 +5742,19 @@
         <v>6120</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2019</v>
+        <v>2573</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12754</v>
+        <v>12547</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02915567805547264</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009616804671201871</v>
+        <v>0.01225615025518188</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06075558108921025</v>
+        <v>0.05976959100168573</v>
       </c>
     </row>
     <row r="17">
@@ -5771,19 +5771,19 @@
         <v>5635</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2685</v>
+        <v>1959</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11656</v>
+        <v>11328</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04486655614718906</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02137562658449143</v>
+        <v>0.01559987557892687</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09281250530407817</v>
+        <v>0.09019885120101999</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -5792,19 +5792,19 @@
         <v>3833</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>979</v>
+        <v>1025</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9023</v>
+        <v>9268</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04545172291471387</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01161031221264513</v>
+        <v>0.01215120587825096</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1069885078396202</v>
+        <v>0.1098960847241102</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -5813,19 +5813,19 @@
         <v>9468</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4679</v>
+        <v>4776</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16988</v>
+        <v>17068</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0451016387317327</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02228861897715051</v>
+        <v>0.02275156767101327</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08092526108506924</v>
+        <v>0.08130869094503297</v>
       </c>
     </row>
     <row r="18">
@@ -5842,19 +5842,19 @@
         <v>27946</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19640</v>
+        <v>19989</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>38630</v>
+        <v>38607</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2225160368529386</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1563865835840171</v>
+        <v>0.1591586771537642</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3075903791703498</v>
+        <v>0.3074052956775636</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -5863,19 +5863,19 @@
         <v>21223</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13763</v>
+        <v>14445</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>30746</v>
+        <v>30078</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2516537560368652</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1632006436248057</v>
+        <v>0.1712873437666995</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3645790137578106</v>
+        <v>0.3566536418578029</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>51</v>
@@ -5884,19 +5884,19 @@
         <v>49168</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>38429</v>
+        <v>38561</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>62784</v>
+        <v>62399</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2342217090025007</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1830621969985356</v>
+        <v>0.1836941548788801</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2990818464997808</v>
+        <v>0.2972479577295118</v>
       </c>
     </row>
     <row r="19">
@@ -5913,19 +5913,19 @@
         <v>47064</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37260</v>
+        <v>36510</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56932</v>
+        <v>58688</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3747491879051235</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.296684465891969</v>
+        <v>0.2907098739236374</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4533234052279063</v>
+        <v>0.4673050732981249</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>37</v>
@@ -5934,19 +5934,19 @@
         <v>37720</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27982</v>
+        <v>28935</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46525</v>
+        <v>46686</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4472785466992208</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3317986372330729</v>
+        <v>0.3431027939759843</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5516821452148384</v>
+        <v>0.5535936230454888</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -5955,19 +5955,19 @@
         <v>84785</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>72454</v>
+        <v>71607</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99771</v>
+        <v>99720</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.403886845863266</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3451482166544085</v>
+        <v>0.3411147316177472</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4752759145716797</v>
+        <v>0.4750324190187251</v>
       </c>
     </row>
     <row r="20">
@@ -5984,19 +5984,19 @@
         <v>41567</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>31636</v>
+        <v>31137</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51442</v>
+        <v>50864</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3309783914987461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2519007107741268</v>
+        <v>0.2479285278137349</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4096029512844779</v>
+        <v>0.4050027642708141</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -6005,19 +6005,19 @@
         <v>18814</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>11928</v>
+        <v>12521</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28598</v>
+        <v>27552</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2230859995188266</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1414441855326923</v>
+        <v>0.1484707775879543</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3391034476148672</v>
+        <v>0.326704637046204</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>64</v>
@@ -6026,19 +6026,19 @@
         <v>60381</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>48730</v>
+        <v>48153</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>74493</v>
+        <v>74451</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.287634128347028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.232133231483809</v>
+        <v>0.2293850569931155</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3548581366525241</v>
+        <v>0.3546600568625072</v>
       </c>
     </row>
     <row r="21">
@@ -6130,19 +6130,19 @@
         <v>3830</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8992</v>
+        <v>9574</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03413742878832637</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008556254964989629</v>
+        <v>0.008384776575645419</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08015337837600188</v>
+        <v>0.08534343378958914</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -6151,19 +6151,19 @@
         <v>6609</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2930</v>
+        <v>2621</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13032</v>
+        <v>13617</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08073988662211788</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03579719063059297</v>
+        <v>0.03201996185479039</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1591970474441624</v>
+        <v>0.1663510216529104</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -6172,19 +6172,19 @@
         <v>10439</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4928</v>
+        <v>5007</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17812</v>
+        <v>17340</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05379750852541131</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02539843073921175</v>
+        <v>0.02580414368727717</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09179461886734484</v>
+        <v>0.08936142719024961</v>
       </c>
     </row>
     <row r="23">
@@ -6201,19 +6201,19 @@
         <v>8289</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3607</v>
+        <v>3736</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>15398</v>
+        <v>16976</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07389212100638043</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03215164032226833</v>
+        <v>0.03330494730959166</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1372652183056137</v>
+        <v>0.1513321140367196</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -6222,19 +6222,19 @@
         <v>2860</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7870</v>
+        <v>8374</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03494091260759803</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01090342848013215</v>
+        <v>0.0110030046092591</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09613664456978005</v>
+        <v>0.1023015946299525</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -6243,19 +6243,19 @@
         <v>11149</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5666</v>
+        <v>5579</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19365</v>
+        <v>19991</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05745985758999461</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02920107278953199</v>
+        <v>0.02875179137830851</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09980128674527304</v>
+        <v>0.1030281835314836</v>
       </c>
     </row>
     <row r="24">
@@ -6272,19 +6272,19 @@
         <v>8393</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3969</v>
+        <v>3822</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16394</v>
+        <v>15701</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07481336977834942</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03538412192240813</v>
+        <v>0.03406966061146852</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1461440728019831</v>
+        <v>0.1399596574061142</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -6293,19 +6293,19 @@
         <v>9651</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4845</v>
+        <v>4940</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15854</v>
+        <v>17047</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1178986386309814</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05918419205416115</v>
+        <v>0.06034358637125914</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.19367992510165</v>
+        <v>0.2082469245080655</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>18</v>
@@ -6314,19 +6314,19 @@
         <v>18044</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10653</v>
+        <v>11356</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26380</v>
+        <v>26915</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09298966048296291</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05490110829286494</v>
+        <v>0.05852272756895752</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1359529885193205</v>
+        <v>0.1387116926412881</v>
       </c>
     </row>
     <row r="25">
@@ -6343,19 +6343,19 @@
         <v>12873</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7072</v>
+        <v>7354</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21918</v>
+        <v>20973</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1147500465200931</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06304274961631703</v>
+        <v>0.06555321217169446</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1953795361010976</v>
+        <v>0.1869601366358274</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -6364,19 +6364,19 @@
         <v>12206</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6894</v>
+        <v>6492</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19880</v>
+        <v>20001</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1491097474173958</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08421639431441613</v>
+        <v>0.07930364978570732</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2428624616038467</v>
+        <v>0.244340522205185</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -6385,19 +6385,19 @@
         <v>25079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>16898</v>
+        <v>17575</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35673</v>
+        <v>37194</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1292453004355109</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08708562734628923</v>
+        <v>0.09057601874708553</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1838461805254942</v>
+        <v>0.1916842404167103</v>
       </c>
     </row>
     <row r="26">
@@ -6414,19 +6414,19 @@
         <v>78796</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>67815</v>
+        <v>68427</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>88343</v>
+        <v>88099</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7024070339068507</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6045164659757823</v>
+        <v>0.609976662686467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7875122067977469</v>
+        <v>0.7853316500163915</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>48</v>
@@ -6435,19 +6435,19 @@
         <v>50532</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>41770</v>
+        <v>40945</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>58636</v>
+        <v>58746</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.617310814721907</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5102630454849403</v>
+        <v>0.5001851434609491</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7163043165243651</v>
+        <v>0.7176484365814966</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>121</v>
@@ -6456,19 +6456,19 @@
         <v>129328</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>114991</v>
+        <v>114632</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>141696</v>
+        <v>142409</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6665076729661202</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5926157215941796</v>
+        <v>0.5907684603891632</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.73024654885261</v>
+        <v>0.7339217056228656</v>
       </c>
     </row>
     <row r="27">
@@ -6560,19 +6560,19 @@
         <v>3112</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>882</v>
+        <v>893</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9031</v>
+        <v>9169</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03844724341804682</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01090410792360409</v>
+        <v>0.01103252924934517</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1115882268866722</v>
+        <v>0.1132923775329685</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9686</v>
+        <v>8320</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03156694433933032</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1747767207158687</v>
+        <v>0.1501295692665178</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -6602,19 +6602,19 @@
         <v>4861</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1755</v>
+        <v>1780</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>12508</v>
+        <v>12419</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03565076463189341</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01287475303564115</v>
+        <v>0.01305783045142435</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09173723906567123</v>
+        <v>0.09108626734799405</v>
       </c>
     </row>
     <row r="29">
@@ -6631,19 +6631,19 @@
         <v>5467</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2029</v>
+        <v>1459</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12293</v>
+        <v>11243</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06755486539215269</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02507478497129729</v>
+        <v>0.01803149158994211</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1518920918344506</v>
+        <v>0.1389219082817168</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -6652,19 +6652,19 @@
         <v>5352</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2515</v>
+        <v>1863</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10474</v>
+        <v>10654</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09657347488590415</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04537695079143362</v>
+        <v>0.03361755248762902</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1889923676839517</v>
+        <v>0.1922466463429798</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -6673,19 +6673,19 @@
         <v>10819</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5768</v>
+        <v>5822</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>18541</v>
+        <v>18972</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07934940003730712</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04230483316889476</v>
+        <v>0.04270218717159515</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1359817532351104</v>
+        <v>0.1391438439093254</v>
       </c>
     </row>
     <row r="30">
@@ -6702,19 +6702,19 @@
         <v>24068</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15986</v>
+        <v>15887</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>32093</v>
+        <v>33698</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2973888806640548</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1975261553513603</v>
+        <v>0.196305590177258</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3965497960886675</v>
+        <v>0.4163904878667567</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -6723,19 +6723,19 @@
         <v>18013</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12066</v>
+        <v>11114</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>25156</v>
+        <v>24801</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3250466927504966</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.217721231896622</v>
+        <v>0.200548260282524</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4539307143600567</v>
+        <v>0.44753176722524</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>42</v>
@@ -6744,19 +6744,19 @@
         <v>42081</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>31439</v>
+        <v>32110</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>52871</v>
+        <v>52295</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3086303229162395</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.230576004214863</v>
+        <v>0.2355038216885811</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3877644309699423</v>
+        <v>0.3835433407809704</v>
       </c>
     </row>
     <row r="31">
@@ -6773,19 +6773,19 @@
         <v>36326</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28038</v>
+        <v>26514</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45748</v>
+        <v>45429</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4488595283192436</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3464473034870884</v>
+        <v>0.3276141956546871</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.5652803291590883</v>
+        <v>0.5613370657929291</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>21</v>
@@ -6794,19 +6794,19 @@
         <v>19699</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>13451</v>
+        <v>13443</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>27024</v>
+        <v>27436</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3554671366073935</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2427248152809905</v>
+        <v>0.2425675271110096</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4876354508650644</v>
+        <v>0.4950653014747622</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>57</v>
@@ -6815,19 +6815,19 @@
         <v>56025</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>46370</v>
+        <v>44609</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>67723</v>
+        <v>67361</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4109004455493942</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3400823687514614</v>
+        <v>0.3271703615884004</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4966932525793734</v>
+        <v>0.4940396085065297</v>
       </c>
     </row>
     <row r="32">
@@ -6844,19 +6844,19 @@
         <v>11957</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6316</v>
+        <v>6480</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19302</v>
+        <v>19363</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1477494822065022</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0780411839473381</v>
+        <v>0.0800645931967522</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2385016536655719</v>
+        <v>0.2392592033508705</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -6865,19 +6865,19 @@
         <v>10604</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>6084</v>
+        <v>6150</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>16998</v>
+        <v>17395</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1913457514168755</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1097801836589955</v>
+        <v>0.110968715327358</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3067206238490244</v>
+        <v>0.3138952429883196</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>24</v>
@@ -6886,19 +6886,19 @@
         <v>22561</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>15064</v>
+        <v>15665</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>31042</v>
+        <v>32761</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1654690668651657</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1104799905442248</v>
+        <v>0.1148880861841057</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.227666443130442</v>
+        <v>0.2402755367429228</v>
       </c>
     </row>
     <row r="33">
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4723</v>
+        <v>4975</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009402333785665747</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04393814385505282</v>
+        <v>0.0462784479429586</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>3558</v>
+        <v>4423</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01154934677456052</v>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04708849973103401</v>
+        <v>0.05852941754040675</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6182</v>
+        <v>6119</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01028858320973008</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03376660237136386</v>
+        <v>0.03342626593848059</v>
       </c>
     </row>
     <row r="35">
@@ -7061,19 +7061,19 @@
         <v>14243</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>8770</v>
+        <v>7727</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>23081</v>
+        <v>21774</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1324931996914801</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08158409242553978</v>
+        <v>0.07187464574995839</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2147017643420156</v>
+        <v>0.2025459144446476</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>18</v>
@@ -7082,19 +7082,19 @@
         <v>17629</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11456</v>
+        <v>10699</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>25608</v>
+        <v>25915</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2332803212152324</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.151603159883501</v>
+        <v>0.1415856470033535</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3388721192715267</v>
+        <v>0.3429345639770302</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>32</v>
@@ -7103,19 +7103,19 @@
         <v>31872</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>23257</v>
+        <v>23186</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>43608</v>
+        <v>42592</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1740963613237289</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.127037197015923</v>
+        <v>0.1266497636825327</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2382020235664203</v>
+        <v>0.2326503375075184</v>
       </c>
     </row>
     <row r="36">
@@ -7132,19 +7132,19 @@
         <v>29563</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20410</v>
+        <v>21189</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>39528</v>
+        <v>39600</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2749955062796305</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1898540870375204</v>
+        <v>0.1971015515248098</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3676953545926828</v>
+        <v>0.3683651947084548</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>23</v>
@@ -7153,19 +7153,19 @@
         <v>21806</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>14876</v>
+        <v>15315</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>29666</v>
+        <v>30325</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2885653139906099</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1968602672032879</v>
+        <v>0.2026696987696019</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.392573683825043</v>
+        <v>0.4012966858856495</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>51</v>
@@ -7174,19 +7174,19 @@
         <v>51369</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>39516</v>
+        <v>40070</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>63758</v>
+        <v>64773</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2805968856521466</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2158527359739403</v>
+        <v>0.2188792471432349</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3482705584886146</v>
+        <v>0.3538111957235519</v>
       </c>
     </row>
     <row r="37">
@@ -7203,19 +7203,19 @@
         <v>32532</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>23057</v>
+        <v>23704</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>42692</v>
+        <v>42609</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3026142808538455</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2144772138089059</v>
+        <v>0.2204972143418671</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.397131710516357</v>
+        <v>0.3963582263945806</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>24</v>
@@ -7224,19 +7224,19 @@
         <v>23649</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>16146</v>
+        <v>15842</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31655</v>
+        <v>31254</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3129518058422351</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2136612450316959</v>
+        <v>0.2096413210019819</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.418900378233587</v>
+        <v>0.4135813735588134</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>55</v>
@@ -7245,19 +7245,19 @@
         <v>56181</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>43344</v>
+        <v>43885</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>69772</v>
+        <v>69054</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3068814304307686</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2367591976922839</v>
+        <v>0.2397148917923774</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3811202861924575</v>
+        <v>0.3771963400724871</v>
       </c>
     </row>
     <row r="38">
@@ -7274,19 +7274,19 @@
         <v>30154</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>20937</v>
+        <v>21811</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>40674</v>
+        <v>40795</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2804946793893782</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1947562475279511</v>
+        <v>0.2028868779732637</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3783524891436633</v>
+        <v>0.379479582327001</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>11</v>
@@ -7295,19 +7295,19 @@
         <v>11611</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>6136</v>
+        <v>6451</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>19190</v>
+        <v>19034</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1536532121773621</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08120343118170475</v>
+        <v>0.08536515568070174</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2539399760930595</v>
+        <v>0.2518833625320872</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>40</v>
@@ -7316,19 +7316,19 @@
         <v>41765</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>31072</v>
+        <v>31280</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>54632</v>
+        <v>53659</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2281367393836258</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1697246972587793</v>
+        <v>0.1708647538655302</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2984189155443767</v>
+        <v>0.2931041304363484</v>
       </c>
     </row>
     <row r="39">
@@ -7420,19 +7420,19 @@
         <v>26297</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>16687</v>
+        <v>17565</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>37273</v>
+        <v>37027</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07327728952484087</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04649680062816451</v>
+        <v>0.04894397308135037</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1038599163248867</v>
+        <v>0.1031746247872405</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>14</v>
@@ -7441,19 +7441,19 @@
         <v>14733</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>8211</v>
+        <v>8365</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>23311</v>
+        <v>23071</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0519063073175917</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02892591872350541</v>
+        <v>0.02947022821286423</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.0821255982286697</v>
+        <v>0.08127891359330383</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>38</v>
@@ -7462,19 +7462,19 @@
         <v>41031</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>29581</v>
+        <v>29684</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>55647</v>
+        <v>56622</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06383918465968677</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0460251268283017</v>
+        <v>0.04618479422722379</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08658017320629076</v>
+        <v>0.08809712548520569</v>
       </c>
     </row>
     <row r="41">
@@ -7491,19 +7491,19 @@
         <v>42633</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>30923</v>
+        <v>30628</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>57297</v>
+        <v>56448</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1187956966979027</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08616548056070443</v>
+        <v>0.08534547551424461</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1596574107100054</v>
+        <v>0.1572914992137139</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>39</v>
@@ -7512,19 +7512,19 @@
         <v>39321</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>28586</v>
+        <v>29214</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>51617</v>
+        <v>51448</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1385300260177843</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.100709769133382</v>
+        <v>0.1029205980819502</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1818503077492951</v>
+        <v>0.1812534512605774</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>78</v>
@@ -7533,19 +7533,19 @@
         <v>81954</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>66793</v>
+        <v>66435</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>101648</v>
+        <v>100855</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1275110036387951</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1039229550498429</v>
+        <v>0.1033657385295407</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1581526976681701</v>
+        <v>0.1569182975798807</v>
       </c>
     </row>
     <row r="42">
@@ -7562,19 +7562,19 @@
         <v>102256</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>85048</v>
+        <v>84851</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>121086</v>
+        <v>122937</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2849346843760396</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2369843986720075</v>
+        <v>0.2364371689154703</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3374032296657686</v>
+        <v>0.3425624761410518</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>74</v>
@@ -7583,19 +7583,19 @@
         <v>74225</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>59473</v>
+        <v>60209</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>89853</v>
+        <v>90170</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2614985742942247</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2095248718481162</v>
+        <v>0.2121183692862035</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3165563458611377</v>
+        <v>0.3176726480879062</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>160</v>
@@ -7604,19 +7604,19 @@
         <v>176481</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>155485</v>
+        <v>154757</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>203288</v>
+        <v>202786</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2745845534162921</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2419165124478008</v>
+        <v>0.2407847132375913</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3162925132517453</v>
+        <v>0.3155124132166606</v>
       </c>
     </row>
     <row r="43">
@@ -7633,19 +7633,19 @@
         <v>68009</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>54145</v>
+        <v>53189</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>84752</v>
+        <v>84469</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1895071763653076</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1508752805256992</v>
+        <v>0.1482108222949008</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2361594557392137</v>
+        <v>0.2353728562560239</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>63</v>
@@ -7654,19 +7654,19 @@
         <v>68986</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>54431</v>
+        <v>55090</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>84746</v>
+        <v>84013</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2430391604794478</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1917613514837409</v>
+        <v>0.1940851400944161</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.298563056708375</v>
+        <v>0.2959798541566335</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>124</v>
@@ -7675,19 +7675,19 @@
         <v>136995</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>115594</v>
+        <v>116430</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>157800</v>
+        <v>161021</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2131486016778811</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1798506512686354</v>
+        <v>0.1811521610239047</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2455187698644726</v>
+        <v>0.2505309123433785</v>
       </c>
     </row>
     <row r="44">
@@ -7704,19 +7704,19 @@
         <v>119679</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>101512</v>
+        <v>101604</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>138716</v>
+        <v>139577</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3334851530359093</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.282862666842789</v>
+        <v>0.2831179861762661</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3865287714148746</v>
+        <v>0.3889284479510685</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>83</v>
@@ -7725,19 +7725,19 @@
         <v>86580</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>72997</v>
+        <v>71633</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>102579</v>
+        <v>103768</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3050259318909515</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2571706706236086</v>
+        <v>0.2523667846144301</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3613910769941441</v>
+        <v>0.3655780439227296</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>185</v>
@@ -7746,19 +7746,19 @@
         <v>206260</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>179558</v>
+        <v>182494</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>231034</v>
+        <v>228407</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.320916656607345</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2793719606819797</v>
+        <v>0.283939102040958</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3594620191795279</v>
+        <v>0.3553749327696863</v>
       </c>
     </row>
     <row r="45">
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>7478</v>
+        <v>8601</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.006543594264206454</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02280433004516302</v>
+        <v>0.02623095781649969</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>4</v>
@@ -7871,19 +7871,19 @@
         <v>3865</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>8740</v>
+        <v>9668</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01629238684089274</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.004103145166667715</v>
+        <v>0.004094360819547217</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.03684727181716008</v>
+        <v>0.04075910838976568</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>6</v>
@@ -7892,19 +7892,19 @@
         <v>6010</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>2049</v>
+        <v>2150</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>12981</v>
+        <v>12710</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01063561199373053</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.003626427944300498</v>
+        <v>0.003805182445598933</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0229705279833507</v>
+        <v>0.02249171799294908</v>
       </c>
     </row>
     <row r="47">
@@ -7921,19 +7921,19 @@
         <v>13233</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>7061</v>
+        <v>7176</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>22280</v>
+        <v>21172</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.04035660190255914</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02153374720756027</v>
+        <v>0.02188469447208389</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06794628269558746</v>
+        <v>0.06456726032906004</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>10</v>
@@ -7942,19 +7942,19 @@
         <v>9781</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>4905</v>
+        <v>4941</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>17504</v>
+        <v>17342</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.0412320703808258</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02067890335605048</v>
+        <v>0.0208312184367286</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.07379190110322144</v>
+        <v>0.07310859134216753</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>23</v>
@@ -7963,19 +7963,19 @@
         <v>23014</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>15186</v>
+        <v>14724</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>33574</v>
+        <v>32887</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04072407638788914</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02687229220562559</v>
+        <v>0.02605441882583009</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05941059086670265</v>
+        <v>0.05819437254758341</v>
       </c>
     </row>
     <row r="48">
@@ -7992,19 +7992,19 @@
         <v>54889</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>42354</v>
+        <v>42726</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>68655</v>
+        <v>69521</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1673893243146279</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1291636903551453</v>
+        <v>0.130296893603232</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2093709289559881</v>
+        <v>0.2120115575258905</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>49</v>
@@ -8013,19 +8013,19 @@
         <v>50922</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>40028</v>
+        <v>40021</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>65203</v>
+        <v>63856</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2146750407570562</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1687455623862919</v>
+        <v>0.1687157918716643</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2748765354608108</v>
+        <v>0.2691987265962059</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>102</v>
@@ -8034,19 +8034,19 @@
         <v>105811</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>87894</v>
+        <v>86939</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>125684</v>
+        <v>123647</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1872373196959632</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1555312421370889</v>
+        <v>0.1538419726712487</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2224019336839106</v>
+        <v>0.2187990057562061</v>
       </c>
     </row>
     <row r="49">
@@ -8063,19 +8063,19 @@
         <v>132178</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>114562</v>
+        <v>115086</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>151517</v>
+        <v>150880</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.4030878784766969</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3493656700671552</v>
+        <v>0.3509644242663595</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.4620658928429348</v>
+        <v>0.4601234528172704</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>84</v>
@@ -8084,19 +8084,19 @@
         <v>84767</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>70528</v>
+        <v>70581</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>99252</v>
+        <v>100187</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.3573554326889081</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2973275414355154</v>
+        <v>0.2975497272875057</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.4184200997325511</v>
+        <v>0.4223619999451408</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>211</v>
@@ -8105,19 +8105,19 @@
         <v>216945</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>194598</v>
+        <v>194619</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>241559</v>
+        <v>242040</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.3838918624053672</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3443491197564711</v>
+        <v>0.3443853548500818</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.4274474967904695</v>
+        <v>0.4282999303881074</v>
       </c>
     </row>
     <row r="50">
@@ -8134,19 +8134,19 @@
         <v>125467</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>108121</v>
+        <v>106987</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>145616</v>
+        <v>141656</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3826226010419095</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3297239569828794</v>
+        <v>0.3262658677717808</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4440685462173638</v>
+        <v>0.4319940504383652</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>81</v>
@@ -8155,19 +8155,19 @@
         <v>87872</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>72736</v>
+        <v>73383</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>102552</v>
+        <v>103124</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.3704450693323172</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3066350180778183</v>
+        <v>0.3093606783081324</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4323324637804872</v>
+        <v>0.4347414260201305</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>200</v>
@@ -8176,19 +8176,19 @@
         <v>213339</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>190836</v>
+        <v>191471</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>236987</v>
+        <v>237670</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.37751112951705</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3376912888206296</v>
+        <v>0.3388153693203723</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4193585669816533</v>
+        <v>0.4205671142006491</v>
       </c>
     </row>
     <row r="51">
@@ -8280,19 +8280,19 @@
         <v>68148</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>51791</v>
+        <v>53466</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>85789</v>
+        <v>85992</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.04811590241816793</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.03656680326266835</v>
+        <v>0.03774966646577624</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.06057128309883174</v>
+        <v>0.06071463975682508</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>56</v>
@@ -8301,19 +8301,19 @@
         <v>57800</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>44583</v>
+        <v>43185</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>75690</v>
+        <v>73376</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.05600840088287285</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.04320172195661936</v>
+        <v>0.0418471236485216</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.07334423368645576</v>
+        <v>0.07110246729141452</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>117</v>
@@ -8322,19 +8322,19 @@
         <v>125948</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>105393</v>
+        <v>106532</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>149067</v>
+        <v>149713</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.05144264026624666</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.04304694321907278</v>
+        <v>0.04351234451216438</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.06088534540852916</v>
+        <v>0.06114927993991254</v>
       </c>
     </row>
     <row r="53">
@@ -8351,19 +8351,19 @@
         <v>123726</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>102530</v>
+        <v>103541</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>146816</v>
+        <v>146214</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.08735650300162234</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.07239078677968859</v>
+        <v>0.07310503237738694</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.1036592215770634</v>
+        <v>0.1032337091592823</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>103</v>
@@ -8372,19 +8372,19 @@
         <v>101727</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>83012</v>
+        <v>83942</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>121570</v>
+        <v>121318</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.09857483017892085</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.08043916247018564</v>
+        <v>0.08134060728415642</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.1178021787847743</v>
+        <v>0.1175578527052719</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>218</v>
@@ -8393,19 +8393,19 @@
         <v>225454</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>196023</v>
+        <v>197636</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>255079</v>
+        <v>254362</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.09208509861424684</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.08006421096591494</v>
+        <v>0.08072316471089165</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.1041853895008494</v>
+        <v>0.1038924826968357</v>
       </c>
     </row>
     <row r="54">
@@ -8422,19 +8422,19 @@
         <v>306347</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>271069</v>
+        <v>274770</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>336374</v>
+        <v>339718</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.2162950177698779</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.19138761734</v>
+        <v>0.1940003134900344</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.2374955381300507</v>
+        <v>0.2398567325045624</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>230</v>
@@ -8443,19 +8443,19 @@
         <v>229670</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>203674</v>
+        <v>199996</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>255297</v>
+        <v>254599</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.222552053869564</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.1973619062328673</v>
+        <v>0.1937977431559036</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.2473846834694104</v>
+        <v>0.246708379296031</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>512</v>
@@ -8464,19 +8464,19 @@
         <v>536016</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>496622</v>
+        <v>496199</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>578581</v>
+        <v>578816</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.2189323979230331</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.2028420258607924</v>
+        <v>0.2026692444446004</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.2363179369092507</v>
+        <v>0.2364138199295331</v>
       </c>
     </row>
     <row r="55">
@@ -8493,19 +8493,19 @@
         <v>391337</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>357291</v>
+        <v>354734</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>425307</v>
+        <v>426106</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.2763023524901101</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2522643367380548</v>
+        <v>0.2504588157589692</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.3002867117924989</v>
+        <v>0.3008504465104577</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>271</v>
@@ -8514,19 +8514,19 @@
         <v>276910</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>247415</v>
+        <v>250485</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>305735</v>
+        <v>310009</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.2683281666079975</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.2397477047087328</v>
+        <v>0.2427219010443383</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.2962603824046975</v>
+        <v>0.3004013184855251</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>644</v>
@@ -8535,19 +8535,19 @@
         <v>668247</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>625502</v>
+        <v>626149</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>718404</v>
+        <v>711705</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.2729411828807308</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.2554823635283585</v>
+        <v>0.2557464233240477</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.2934275041281628</v>
+        <v>0.2906915356603594</v>
       </c>
     </row>
     <row r="56">
@@ -8564,19 +8564,19 @@
         <v>526779</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>489634</v>
+        <v>490404</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>563585</v>
+        <v>564820</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3719302243202217</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3457045744039042</v>
+        <v>0.346247914454013</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.3979169864618543</v>
+        <v>0.3987890790596141</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>348</v>
@@ -8585,19 +8585,19 @@
         <v>365875</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>334516</v>
+        <v>334117</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>395802</v>
+        <v>397208</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.3545365484606448</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3241494400637772</v>
+        <v>0.32376210791377</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.3835353847446619</v>
+        <v>0.384897753431773</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>834</v>
@@ -8606,19 +8606,19 @@
         <v>892654</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>849260</v>
+        <v>842295</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>943690</v>
+        <v>940386</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.3645986803157426</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3468748206787903</v>
+        <v>0.3440299863273271</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.3854441497232896</v>
+        <v>0.38409475287825</v>
       </c>
     </row>
     <row r="57">
